--- a/data/loan_repayment.xlsx
+++ b/data/loan_repayment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RestAssured\RestAssuredAPITesting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46537120-56C8-4692-B5FF-7E08122CB74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3340293C-1EF3-4711-B632-324CD49DCCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>amount</t>
   </si>
@@ -72,28 +72,40 @@
     <t>responseBody</t>
   </si>
   <si>
+    <t>327450720_94852</t>
+  </si>
+  <si>
+    <t>327450720_94853</t>
+  </si>
+  <si>
+    <t>327450720_94854</t>
+  </si>
+  <si>
+    <t>327450720_94855</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"amount":21.0,"fromWallet":"01621215877","toWallet":"System Account For Escrow","balanceFrom":466.02,"balanceTo":98638.88,"fromName":"A.B.M.Shihab Uddin","txnTime":"2022-11-06T23:25:01.037+06:00","transactionNumber":"ZZZZ7OGDK","typeName":"Bank Cash-out","txnType":"CASH_OUT_TO_BANK","canReverse":true,"reversedTxn":false,"note":"Cash out to bank MTB, account 460196000923","status":"PROCESSED","fee":0.42,"outletId":0,"counterId":0}</t>
+  </si>
+  <si>
     <t>{"code":4550,"message":"No loan information found."}</t>
   </si>
   <si>
-    <t>{"amount":21.0,"fromWallet":"01621215877","toWallet":"System Account For Escrow","balanceFrom":748.32,"balanceTo":98531.78,"fromName":"A.B.M.Shihab Uddin","txnTime":"2022-11-05T00:26:30.066+06:00","transactionNumber":"QQQQJ2M4H","typeName":"Bank Cash-out","txnType":"CASH_OUT_TO_BANK","canReverse":true,"reversedTxn":false,"note":"Cash out to bank MTB, account 460196000923","status":"PROCESSED","fee":0.42,"outletId":0,"counterId":0}</t>
-  </si>
-  <si>
     <t>{"code":4404,"message":"Insufficient balance"}</t>
   </si>
   <si>
-    <t>327450720_94837</t>
-  </si>
-  <si>
-    <t>327450720_94838</t>
-  </si>
-  <si>
-    <t>327450720_94839</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"amount":21.0,"fromWallet":"01621215877","toWallet":"System Account For Escrow","balanceFrom":705.48,"balanceTo":98553.2,"fromName":"A.B.M.Shihab Uddin","txnTime":"2022-11-05T00:27:36.639+06:00","transactionNumber":"XXXX8Z099","typeName":"Bank Cash-out","txnType":"CASH_OUT_TO_BANK","canReverse":true,"reversedTxn":false,"note":"Cash out to bank MTB, account 460196000923","status":"PROCESSED","fee":0.42,"outletId":0,"counterId":0}</t>
+    <t>{
+  "code" : 4010,
+  "message" : "Invalid credentials",
+  "errors" : null,
+  "error" : null,
+  "error_description" : null
+}</t>
+  </si>
+  <si>
+    <t>{"code":5000,"message":"Something went wrong"}</t>
   </si>
 </sst>
 </file>
@@ -454,22 +466,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.36328125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="18.08984375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.81640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="14.90625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="12.36328125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="14.453125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="14.54296875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.36328125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.08984375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="14.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
@@ -533,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -548,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -574,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -589,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>403.0</v>
+        <v>500.0</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -615,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -633,7 +645,48 @@
         <v>400.0</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>9317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>460196000923</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3">
+        <v>460196000923</v>
+      </c>
+      <c r="J5" s="2">
+        <v>55667788</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/loan_repayment.xlsx
+++ b/data/loan_repayment.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="25">
   <si>
     <t>amount</t>
   </si>
